--- a/output/results_epex_Bidirektional.xlsx
+++ b/output/results_epex_Bidirektional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsanders/Documents/GitHub/masterarbeit-flex-kpis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1012A32E-E588-784C-85C5-AF65B45947A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CC5D0-7901-1D47-80ED-62AD5028FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="500" windowWidth="27340" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15966097987751532"/>
+                  <c:y val="0.58995734908136488"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -765,10 +771,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16190266841644793"/>
+                  <c:y val="-0.23518518518518519"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2276,16 +2288,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2317,16 +2329,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2688,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3800,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:BB10"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
